--- a/Automation_With_Python/transactions.xlsx
+++ b/Automation_With_Python/transactions.xlsx
@@ -30,9 +30,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -49,22 +49,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -73,7 +57,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,29 +79,67 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -125,8 +147,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,54 +178,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,19 +202,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,163 +382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,30 +393,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,6 +420,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -462,23 +453,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,153 +484,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -969,13 +969,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E4" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="14.1111111111111" customWidth="1"/>
   </cols>
@@ -991,7 +991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -1001,12 +1001,8 @@
       <c r="C2" s="1">
         <v>5.95</v>
       </c>
-      <c r="E2">
-        <f>C2*0.9</f>
-        <v>5.355</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -1016,12 +1012,8 @@
       <c r="C3" s="1">
         <v>6.95</v>
       </c>
-      <c r="E3">
-        <f>C3*0.9</f>
-        <v>6.255</v>
-      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -1030,10 +1022,6 @@
       </c>
       <c r="C4" s="1">
         <v>7.95</v>
-      </c>
-      <c r="E4">
-        <f>C4*0.9</f>
-        <v>7.155</v>
       </c>
     </row>
   </sheetData>

--- a/Automation_With_Python/transactions.xlsx
+++ b/Automation_With_Python/transactions.xlsx
@@ -30,10 +30,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -50,22 +50,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,22 +73,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,61 +103,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,8 +119,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -187,7 +158,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,187 +202,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,6 +393,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -414,82 +488,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,7 +498,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -507,139 +513,133 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
